--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pcsk9-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pcsk9-Vldlr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.286724</v>
+        <v>0.03786566666666667</v>
       </c>
       <c r="H2">
-        <v>0.8601719999999999</v>
+        <v>0.113597</v>
       </c>
       <c r="I2">
-        <v>0.1240995385141648</v>
+        <v>0.02729193434771035</v>
       </c>
       <c r="J2">
-        <v>0.1240995385141648</v>
+        <v>0.02729193434771035</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3374003333333333</v>
+        <v>0.3252056666666667</v>
       </c>
       <c r="N2">
-        <v>1.012201</v>
+        <v>0.975617</v>
       </c>
       <c r="O2">
-        <v>0.01738364872808817</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="P2">
-        <v>0.01738364872808818</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="Q2">
-        <v>0.09674077317466664</v>
+        <v>0.01231412937211111</v>
       </c>
       <c r="R2">
-        <v>0.8706669585719998</v>
+        <v>0.110827164349</v>
       </c>
       <c r="S2">
-        <v>0.00215730278484809</v>
+        <v>0.0004319726391360346</v>
       </c>
       <c r="T2">
-        <v>0.00215730278484809</v>
+        <v>0.0004319726391360346</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.286724</v>
+        <v>0.03786566666666667</v>
       </c>
       <c r="H3">
-        <v>0.8601719999999999</v>
+        <v>0.113597</v>
       </c>
       <c r="I3">
-        <v>0.1240995385141648</v>
+        <v>0.02729193434771035</v>
       </c>
       <c r="J3">
-        <v>0.1240995385141648</v>
+        <v>0.02729193434771035</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>50.133935</v>
       </c>
       <c r="O3">
-        <v>0.8610055862391021</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="P3">
-        <v>0.8610055862391023</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="Q3">
-        <v>4.791534126313333</v>
+        <v>0.6327849571327778</v>
       </c>
       <c r="R3">
-        <v>43.12380713682</v>
+        <v>5.695064614195</v>
       </c>
       <c r="S3">
-        <v>0.1068503959103905</v>
+        <v>0.0221977355993432</v>
       </c>
       <c r="T3">
-        <v>0.1068503959103905</v>
+        <v>0.0221977355993432</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.286724</v>
+        <v>0.03786566666666667</v>
       </c>
       <c r="H4">
-        <v>0.8601719999999999</v>
+        <v>0.113597</v>
       </c>
       <c r="I4">
-        <v>0.1240995385141648</v>
+        <v>0.02729193434771035</v>
       </c>
       <c r="J4">
-        <v>0.1240995385141648</v>
+        <v>0.02729193434771035</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.360351</v>
+        <v>3.509903666666667</v>
       </c>
       <c r="N4">
-        <v>7.081053000000001</v>
+        <v>10.529711</v>
       </c>
       <c r="O4">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="P4">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="Q4">
-        <v>0.676769280124</v>
+        <v>0.1329048422741111</v>
       </c>
       <c r="R4">
-        <v>6.090923521116</v>
+        <v>1.196143580467</v>
       </c>
       <c r="S4">
-        <v>0.0150918398189262</v>
+        <v>0.004662226109231117</v>
       </c>
       <c r="T4">
-        <v>0.01509183981892621</v>
+        <v>0.004662226109231117</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>3.221215</v>
       </c>
       <c r="I5">
-        <v>0.4647341403288008</v>
+        <v>0.7739041374319726</v>
       </c>
       <c r="J5">
-        <v>0.4647341403288009</v>
+        <v>0.7739041374319726</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3374003333333333</v>
+        <v>0.3252056666666667</v>
       </c>
       <c r="N5">
-        <v>1.012201</v>
+        <v>0.975617</v>
       </c>
       <c r="O5">
-        <v>0.01738364872808817</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="P5">
-        <v>0.01738364872808818</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="Q5">
-        <v>0.3622796715794444</v>
+        <v>0.3491857905172222</v>
       </c>
       <c r="R5">
-        <v>3.260517044215</v>
+        <v>3.142672114655</v>
       </c>
       <c r="S5">
-        <v>0.00807877504742591</v>
+        <v>0.01224923849022933</v>
       </c>
       <c r="T5">
-        <v>0.008078775047425914</v>
+        <v>0.01224923849022933</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.221215</v>
       </c>
       <c r="I6">
-        <v>0.4647341403288008</v>
+        <v>0.7739041374319726</v>
       </c>
       <c r="J6">
-        <v>0.4647341403288009</v>
+        <v>0.7739041374319726</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>50.133935</v>
       </c>
       <c r="O6">
-        <v>0.8610055862391021</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="P6">
-        <v>0.8610055862391023</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="Q6">
         <v>17.94357593678055</v>
@@ -818,10 +818,10 @@
         <v>161.492183431025</v>
       </c>
       <c r="S6">
-        <v>0.4001386909391243</v>
+        <v>0.629450415756035</v>
       </c>
       <c r="T6">
-        <v>0.4001386909391245</v>
+        <v>0.629450415756035</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.221215</v>
       </c>
       <c r="I7">
-        <v>0.4647341403288008</v>
+        <v>0.7739041374319726</v>
       </c>
       <c r="J7">
-        <v>0.4647341403288009</v>
+        <v>0.7739041374319726</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.360351</v>
+        <v>3.509903666666667</v>
       </c>
       <c r="N7">
-        <v>7.081053000000001</v>
+        <v>10.529711</v>
       </c>
       <c r="O7">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="P7">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="Q7">
-        <v>2.534399348821667</v>
+        <v>3.768718113207222</v>
       </c>
       <c r="R7">
-        <v>22.809594139395</v>
+        <v>33.918463018865</v>
       </c>
       <c r="S7">
-        <v>0.05651667434225058</v>
+        <v>0.1322044831857083</v>
       </c>
       <c r="T7">
-        <v>0.05651667434225062</v>
+        <v>0.1322044831857083</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9499733333333333</v>
+        <v>0.2758266666666667</v>
       </c>
       <c r="H8">
-        <v>2.84992</v>
+        <v>0.82748</v>
       </c>
       <c r="I8">
-        <v>0.4111663211570343</v>
+        <v>0.1988039282203171</v>
       </c>
       <c r="J8">
-        <v>0.4111663211570343</v>
+        <v>0.1988039282203171</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3374003333333333</v>
+        <v>0.3252056666666667</v>
       </c>
       <c r="N8">
-        <v>1.012201</v>
+        <v>0.975617</v>
       </c>
       <c r="O8">
-        <v>0.01738364872808817</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="P8">
-        <v>0.01738364872808818</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="Q8">
-        <v>0.3205213193244444</v>
+        <v>0.08970039501777778</v>
       </c>
       <c r="R8">
-        <v>2.88469187392</v>
+        <v>0.80730355516</v>
       </c>
       <c r="S8">
-        <v>0.007147570895814173</v>
+        <v>0.003146638726659031</v>
       </c>
       <c r="T8">
-        <v>0.007147570895814175</v>
+        <v>0.003146638726659031</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9499733333333333</v>
+        <v>0.2758266666666667</v>
       </c>
       <c r="H9">
-        <v>2.84992</v>
+        <v>0.82748</v>
       </c>
       <c r="I9">
-        <v>0.4111663211570343</v>
+        <v>0.1988039282203171</v>
       </c>
       <c r="J9">
-        <v>0.4111663211570343</v>
+        <v>0.1988039282203171</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>50.133935</v>
       </c>
       <c r="O9">
-        <v>0.8610055862391021</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="P9">
-        <v>0.8610055862391023</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="Q9">
-        <v>15.87530044835556</v>
+        <v>4.609425392644445</v>
       </c>
       <c r="R9">
-        <v>142.8777040352</v>
+        <v>41.4848285338</v>
       </c>
       <c r="S9">
-        <v>0.3540164993895872</v>
+        <v>0.161696015332663</v>
       </c>
       <c r="T9">
-        <v>0.3540164993895873</v>
+        <v>0.161696015332663</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9499733333333333</v>
+        <v>0.2758266666666667</v>
       </c>
       <c r="H10">
-        <v>2.84992</v>
+        <v>0.82748</v>
       </c>
       <c r="I10">
-        <v>0.4111663211570343</v>
+        <v>0.1988039282203171</v>
       </c>
       <c r="J10">
-        <v>0.4111663211570343</v>
+        <v>0.1988039282203171</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.360351</v>
+        <v>3.509903666666667</v>
       </c>
       <c r="N10">
-        <v>7.081053000000001</v>
+        <v>10.529711</v>
       </c>
       <c r="O10">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="P10">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="Q10">
-        <v>2.242270507306667</v>
+        <v>0.9681250286977778</v>
       </c>
       <c r="R10">
-        <v>20.18043456576</v>
+        <v>8.71312525828</v>
       </c>
       <c r="S10">
-        <v>0.05000225087163285</v>
+        <v>0.03396127416099513</v>
       </c>
       <c r="T10">
-        <v>0.05000225087163288</v>
+        <v>0.03396127416099513</v>
       </c>
     </row>
   </sheetData>
